--- a/data/data thẻ việc.xlsx
+++ b/data/data thẻ việc.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="xJbvZYVH25ASFzEa8XYcwWrs/pGgPvRCCWhs4GMgEcI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="nSuF19Ga2wHWDDgMIGja2d4A8588dYbeq0ri5u24l1I="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="263">
   <si>
     <t>STT</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Dự án Đầu Tư Mở Rộng Nhà Máy Sản Xuất Ốc Vít Tại Bình Dương</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Tên thẻ việc</t>
   </si>
   <si>
@@ -156,12 +153,36 @@
     <t>Trạng thái thẻ</t>
   </si>
   <si>
+    <t>Trọng số</t>
+  </si>
+  <si>
     <t>Bảng việc</t>
   </si>
   <si>
     <t>Danh mục công việc</t>
   </si>
   <si>
+    <t>Độ ưu tiên</t>
+  </si>
+  <si>
+    <t>Kiểu công việc</t>
+  </si>
+  <si>
+    <t>Kinh phí</t>
+  </si>
+  <si>
+    <t>Loại tiền</t>
+  </si>
+  <si>
+    <t>Chu kì</t>
+  </si>
+  <si>
+    <t>Luồng công việc</t>
+  </si>
+  <si>
+    <t>Hoạt động</t>
+  </si>
+  <si>
     <t>Dự án xây dựng</t>
   </si>
   <si>
@@ -171,60 +192,177 @@
     <t xml:space="preserve">TITAN (ANDROID NATIVE) </t>
   </si>
   <si>
+    <t>Bình thường</t>
+  </si>
+  <si>
+    <t>Chuẩn bị</t>
+  </si>
+  <si>
+    <t>1,000,000</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Không lặp lại</t>
+  </si>
+  <si>
+    <t>Quy trình mua hàng L8</t>
+  </si>
+  <si>
     <t>Hợp đồng sản xuất với đối tác nước ngoài</t>
   </si>
   <si>
     <t>BETA (REACTJS-NODEJS)</t>
   </si>
   <si>
+    <t>Trung bình</t>
+  </si>
+  <si>
+    <t>Việc chính</t>
+  </si>
+  <si>
+    <t>2,200,000</t>
+  </si>
+  <si>
+    <t>Quy trình mua hàng 10-8-2</t>
+  </si>
+  <si>
     <t>Hợp đồng sản xuất theo đơn đặt hàng</t>
   </si>
   <si>
     <t>SIGMA (base.net7)</t>
   </si>
   <si>
+    <t>Rất quan trọng</t>
+  </si>
+  <si>
+    <t>Tăng cường</t>
+  </si>
+  <si>
+    <t>30,000,000</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>Giờ</t>
+  </si>
+  <si>
+    <t>Quy trình mua hàng L4</t>
+  </si>
+  <si>
     <t>Hợp đồng sản xuất và bảo trì</t>
   </si>
   <si>
     <t>SIGMA-1</t>
   </si>
   <si>
+    <t>Thấp</t>
+  </si>
+  <si>
+    <t>120,000,000</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày </t>
+  </si>
+  <si>
+    <t>Quy trình mua hàng 8/10 L3</t>
+  </si>
+  <si>
     <t>Hợp đồng sản xuất và lắp ráp</t>
   </si>
   <si>
     <t>SIGMA-2(PHP)</t>
   </si>
   <si>
+    <t>15,000,000</t>
+  </si>
+  <si>
+    <t>Tuần</t>
+  </si>
+  <si>
+    <t>Quy trình mua hàng</t>
+  </si>
+  <si>
     <t>Hợp đồng sản xuất theo khối lượng lớn</t>
   </si>
   <si>
     <t>ZETA (TESTER QA)</t>
   </si>
   <si>
+    <t>8,500,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tháng </t>
+  </si>
+  <si>
+    <t>Quy trình mua hàng 8/10/2024 L1</t>
+  </si>
+  <si>
     <t>Hợp đồng sản xuất độc quyền</t>
   </si>
   <si>
     <t>Forex Exness</t>
   </si>
   <si>
+    <t>2,500,000</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Năm</t>
+  </si>
+  <si>
+    <t>Luồng hợp đồng mua 08/10 L1</t>
+  </si>
+  <si>
     <t>Hợp đồng liên doanh sản xuất</t>
   </si>
   <si>
     <t>BETA 1 (REACTJS-NODEJS)</t>
   </si>
   <si>
+    <t>12,000,000</t>
+  </si>
+  <si>
+    <t>Quy trình bán hàng hàng ngày 8/10</t>
+  </si>
+  <si>
     <t>Quản lý tồn kho</t>
   </si>
   <si>
     <t>BETA 3 (REACTJS-NODEJS)</t>
   </si>
   <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>45,000,000</t>
+  </si>
+  <si>
+    <t>VNĐ</t>
+  </si>
+  <si>
+    <t>Quy trình bán hàng 7/10 L1</t>
+  </si>
+  <si>
     <t>Bảo trì máy móc thiết bị</t>
   </si>
   <si>
     <t>BETA 4 (REACTJS-NODEJS)</t>
   </si>
   <si>
+    <t>5,000,000</t>
+  </si>
+  <si>
+    <t>Quy  trình mua hàng 7/10 L1</t>
+  </si>
+  <si>
     <t>Giám sát quy trình sản xuất</t>
   </si>
   <si>
@@ -234,39 +372,165 @@
     <t>SIGMA-4</t>
   </si>
   <si>
+    <t>65,000,000</t>
+  </si>
+  <si>
+    <t>Luồng sản xuất TrangNH 05</t>
+  </si>
+  <si>
     <t>Phân tích hiệu suất sản xuất</t>
   </si>
   <si>
+    <t>4,000,000</t>
+  </si>
+  <si>
+    <t>Luồng đặt hàng Khuôn 2.10.2024[PO_T10.2024_08]</t>
+  </si>
+  <si>
     <t>Quản lý dây chuyền sản xuất</t>
   </si>
   <si>
+    <t>80,000,000</t>
+  </si>
+  <si>
     <t>Quản lý an toàn lao động</t>
   </si>
   <si>
+    <t>10,000,000</t>
+  </si>
+  <si>
+    <t>Quy trình báo giá</t>
+  </si>
+  <si>
     <t>Xây dựng chiến lược tiếp thị</t>
   </si>
   <si>
+    <t>Luồng sản xuất ốc vít</t>
+  </si>
+  <si>
     <t>Quản lý chiến dịch quảng cáo</t>
   </si>
   <si>
+    <t>sản xuất</t>
+  </si>
+  <si>
     <t>Nghiên cứu thị trường</t>
   </si>
   <si>
     <t>Quản lý nội dung</t>
   </si>
   <si>
+    <t>Luồng hợp đồn mua 2609</t>
+  </si>
+  <si>
     <t>Quản lý mối quan hệ khách hàng</t>
   </si>
   <si>
     <t>Phân tích đối thủ cạnh tranh</t>
   </si>
   <si>
+    <t>Luồng sản xuất TrangNH 03</t>
+  </si>
+  <si>
     <t>Quản lý thương hiệu</t>
   </si>
   <si>
     <t>BETA 2 (REACTJS-NODEJS)</t>
   </si>
   <si>
+    <t>Quy trình mua hàng 26/9 L2</t>
+  </si>
+  <si>
+    <t>TITAN (ANDROID NATIVE)</t>
+  </si>
+  <si>
+    <t>Quy trình mua hang 26/9 L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luống sản xuất 26/9/2003 </t>
+  </si>
+  <si>
+    <t>Quy trình mua hàng 2509</t>
+  </si>
+  <si>
+    <t>Nghiên cứu phát triển sản phẩm mới</t>
+  </si>
+  <si>
+    <t>OMEGA (JAVA SPRING)</t>
+  </si>
+  <si>
+    <t>Quy trình mua hàng 25/9</t>
+  </si>
+  <si>
+    <t>Hợp đồng cung cấp dịch vụ bảo trì hệ thống</t>
+  </si>
+  <si>
+    <t>DELTA (PHP-LARAVEL)</t>
+  </si>
+  <si>
+    <t>Quy Trình lập và Kiêm Soát Kế hoạch Sản Xuất ngày 25-9</t>
+  </si>
+  <si>
+    <t>Thiết kế và triển khai giao diện người dùng</t>
+  </si>
+  <si>
+    <t>ALPHA (REACTJS)</t>
+  </si>
+  <si>
+    <t>Báo muộn</t>
+  </si>
+  <si>
+    <t>Phát triển API cho ứng dụng mới</t>
+  </si>
+  <si>
+    <t>SIGMA-2</t>
+  </si>
+  <si>
+    <t>Luồng quản lý báo phép hành chính</t>
+  </si>
+  <si>
+    <t>Hợp đồng tích hợp hệ thống ERP</t>
+  </si>
+  <si>
+    <t>Luồng sản xuất 249/2024</t>
+  </si>
+  <si>
+    <t>Nâng cấp phần mềm quản lý kho</t>
+  </si>
+  <si>
+    <t>GAMMA (PYTHON-DJANGO)</t>
+  </si>
+  <si>
+    <t>Luồng báo giá hỏi nhà cung cấp 9/10 L2 [REQ_T9.2024_17]</t>
+  </si>
+  <si>
+    <t>Xây dựng hệ thống an ninh mạng</t>
+  </si>
+  <si>
+    <t>THETA (C# .NET)</t>
+  </si>
+  <si>
+    <t>Quy trình mua hàng ngày 17-9-2024</t>
+  </si>
+  <si>
+    <t>Hợp đồng bảo trì định kỳ</t>
+  </si>
+  <si>
+    <t>Quy trình mua hàng 16/9 L1</t>
+  </si>
+  <si>
+    <t>Dự án triển khai hệ thống quản lý khách hàng (CRM)</t>
+  </si>
+  <si>
+    <t>Quy trình bán hàng 16/9 L1</t>
+  </si>
+  <si>
+    <t>Hợp đồng cung cấp dịch vụ dữ liệu</t>
+  </si>
+  <si>
+    <t>Quy trình mua hàng 119/ L6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thêm nhân sự </t>
   </si>
   <si>
@@ -393,9 +657,6 @@
     <t xml:space="preserve">Nguyễn Thế Việt </t>
   </si>
   <si>
-    <t>Năm</t>
-  </si>
-  <si>
     <t>Nhiệm thu</t>
   </si>
   <si>
@@ -406,9 +667,6 @@
   </si>
   <si>
     <t>Tạo hợp đồng</t>
-  </si>
-  <si>
-    <t>Giờ</t>
   </si>
   <si>
     <t>Duyệt hợp đồng</t>
@@ -556,8 +814,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -583,6 +842,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -590,11 +854,6 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -635,7 +894,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -648,6 +907,28 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -685,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -710,45 +991,65 @@
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1523,562 +1824,1688 @@
     <col customWidth="1" min="3" max="3" width="25.5"/>
     <col customWidth="1" min="4" max="4" width="30.13"/>
     <col customWidth="1" min="5" max="5" width="14.13"/>
-    <col customWidth="1" min="6" max="7" width="27.5"/>
+    <col customWidth="1" min="6" max="6" width="17.75"/>
+    <col customWidth="1" min="7" max="8" width="27.5"/>
+    <col customWidth="1" min="9" max="9" width="20.5"/>
+    <col customWidth="1" min="10" max="10" width="21.38"/>
+    <col customWidth="1" min="11" max="11" width="17.25"/>
+    <col customWidth="1" min="12" max="12" width="19.88"/>
+    <col customWidth="1" min="13" max="13" width="24.38"/>
+    <col customWidth="1" min="14" max="14" width="56.13"/>
+    <col customWidth="1" min="15" max="15" width="23.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="12">
         <v>1.0</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="13">
         <v>45568.0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="14">
         <v>45570.0</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="E3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8">
-        <f t="shared" ref="A4:A23" si="1">A3+1</f>
+      <c r="A4" s="12">
+        <f t="shared" ref="A4:A37" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="13">
         <v>45569.0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="14">
         <v>45575.0</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="E4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="13">
         <v>45570.0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="14">
         <v>45572.0</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="E5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="13">
         <v>45571.0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="14">
         <v>45573.0</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="F6" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="13">
         <v>45572.0</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="14">
         <v>45574.0</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="E7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="13">
         <v>45573.0</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="14">
         <v>45575.0</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="E8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="13">
         <v>45574.0</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="14">
         <v>45576.0</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="E9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="13">
         <v>45575.0</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="14">
         <v>45577.0</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="E10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="12">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="13">
         <v>45577.0</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="14">
         <v>45579.0</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="E11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="13">
         <v>45578.0</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="14">
         <v>45580.0</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="E12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="13">
         <v>45579.0</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="14">
         <v>45581.0</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="E13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8">
+      <c r="A14" s="12">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="13">
+        <v>45580.0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>45582.0</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="9">
-        <v>45580.0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>45582.0</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="J14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="12">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="13">
         <v>45581.0</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="14">
         <v>45583.0</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="E15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8">
+      <c r="A16" s="12">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="13">
         <v>45582.0</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="14">
         <v>45584.0</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="E16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8">
+      <c r="A17" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="13">
         <v>45583.0</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="14">
         <v>45585.0</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="E17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8">
+      <c r="A18" s="12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="13">
+        <v>45584.0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>45586.0</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="9">
-        <v>45584.0</v>
-      </c>
-      <c r="D18" s="10">
-        <v>45586.0</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="N18" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="8">
+      <c r="A19" s="12">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="13">
         <v>45585.0</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="14">
         <v>45587.0</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="E19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="16"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8">
+      <c r="A20" s="12">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="B20" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="13">
         <v>45586.0</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="14">
         <v>45588.0</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="E20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8">
+      <c r="A21" s="12">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="13">
         <v>45587.0</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="14">
         <v>45589.0</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="E21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8">
+      <c r="A22" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="13">
         <v>45588.0</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="14">
         <v>45590.0</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="E22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8">
+      <c r="A23" s="12">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="13">
+        <v>45589.0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>45591.0</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="12">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="20">
+        <v>45568.0</v>
+      </c>
+      <c r="D24" s="20">
+        <v>45570.0</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="12">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="20">
+        <v>45569.0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>45575.0</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="12">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="20">
+        <v>45570.0</v>
+      </c>
+      <c r="D26" s="20">
+        <v>45572.0</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O26" s="16"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="12">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="20">
+        <v>45571.0</v>
+      </c>
+      <c r="D27" s="20">
+        <v>45573.0</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="9">
-        <v>45589.0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>45591.0</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="L27" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="12">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="20">
+        <v>45572.0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>45577.0</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="M28" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O28" s="16"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="12">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="20">
+        <v>45573.0</v>
+      </c>
+      <c r="D29" s="14">
+        <v>45579.0</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" s="16"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="20">
+        <v>45574.0</v>
+      </c>
+      <c r="D30" s="14">
+        <v>45578.0</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="O30" s="16"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="12">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="14">
+        <v>45575.0</v>
+      </c>
+      <c r="D31" s="14">
+        <v>45580.0</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="12">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="14">
+        <v>45576.0</v>
+      </c>
+      <c r="D32" s="14">
+        <v>45582.0</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="12">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="14">
+        <v>45577.0</v>
+      </c>
+      <c r="D33" s="14">
+        <v>45584.0</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L33" s="17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
+      <c r="M33" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="12">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="14">
+        <v>45578.0</v>
+      </c>
+      <c r="D34" s="14">
+        <v>45585.0</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="12">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="14">
+        <v>45579.0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>45583.0</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O35" s="16"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="12">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="14">
+        <v>45580.0</v>
+      </c>
+      <c r="D36" s="14">
+        <v>45590.0</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O36" s="16"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="12">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="14">
+        <v>45581.0</v>
+      </c>
+      <c r="D37" s="14">
+        <v>45587.0</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O37" s="16"/>
+    </row>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -3023,26 +4450,33 @@
     <row r="979" ht="15.75" customHeight="1"/>
     <row r="980" ht="15.75" customHeight="1"/>
     <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2 I4:I35">
+      <formula1>"Trung bình,Rất quan trọng,Thấp,Cao,Bình thường"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2">
+      <formula1>"VNĐ,JPY,USD,KRW,EUR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I3 I36">
+      <formula1>"Bình thường,Trung bình,Rất quan trọng,Thấp,Cao"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I37">
+      <formula1>"Bình thường,Trung bình,Rất quan trọng,Thấp,Cao"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J37">
+      <formula1>"Chuẩn bị,Việc chính,Tăng cường"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="M2:M37">
+      <formula1>"Không lặp lại,Giờ,Ngày,Tuần,Tháng,Năm"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L37">
+      <formula1>"VNĐ,JPY,USD,KRW,EUR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L3:L36">
+      <formula1>"VNĐ,JPY,USD,KRW,EUR"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3066,406 +4500,406 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="12">
         <v>1.0</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>86</v>
+      <c r="E3" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="12">
         <f t="shared" ref="A4:A23" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>87</v>
+      <c r="E4" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>88</v>
+      <c r="E5" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>89</v>
+      <c r="E6" s="12" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>90</v>
+      <c r="E7" s="12" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>91</v>
+      <c r="E8" s="12" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>92</v>
+      <c r="E9" s="12" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>93</v>
+      <c r="E10" s="12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="12">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>94</v>
+      <c r="E11" s="12" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>95</v>
+      <c r="E12" s="12" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>96</v>
+      <c r="E13" s="12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8">
+      <c r="A14" s="12">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>97</v>
+      <c r="E14" s="12" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="12">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>98</v>
+      <c r="E15" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8">
+      <c r="A16" s="12">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>86</v>
+      <c r="E16" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8">
+      <c r="A17" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>99</v>
+      <c r="E17" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8">
+      <c r="A18" s="12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>100</v>
+      <c r="E18" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="8">
+      <c r="A19" s="12">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>92</v>
+      <c r="E19" s="12" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8">
+      <c r="A20" s="12">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>101</v>
+      <c r="E20" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8">
+      <c r="A21" s="12">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>94</v>
+      <c r="E21" s="12" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8">
+      <c r="A22" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>101</v>
+      <c r="E22" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8">
+      <c r="A23" s="12">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>101</v>
+      <c r="E23" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -4480,1336 +5914,1335 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>112</v>
+      <c r="B1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="U1" s="23"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="22">
+      <c r="A3" s="30">
         <v>1.0</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="22">
+      <c r="B3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="30">
         <v>3.0</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="22">
+      <c r="G3" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="30">
         <v>1.0</v>
       </c>
-      <c r="L3" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="22">
+      <c r="L3" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="P3" s="30">
         <v>6.0</v>
       </c>
-      <c r="Q3" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
+      <c r="Q3" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="22">
+      <c r="A4" s="30">
         <f t="shared" ref="A4:A23" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="22">
+      <c r="B4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="30">
         <v>10.0</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="22">
+      <c r="G4" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" s="30">
         <v>10.0</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
+      <c r="L4" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="22">
+      <c r="A5" s="30">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="22">
+      <c r="B5" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="30">
         <v>6.0</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="22">
+      <c r="G5" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="30">
         <v>7.0</v>
       </c>
-      <c r="L5" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
+      <c r="L5" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="22">
+      <c r="A6" s="30">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="22">
+      <c r="B6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="30">
         <v>1.0</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" s="22">
+      <c r="G6" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="30">
         <v>5.0</v>
       </c>
-      <c r="L6" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
+      <c r="L6" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="22">
+      <c r="A7" s="30">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="22">
+      <c r="B7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="30">
         <v>10.0</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="22">
+      <c r="G7" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="30">
         <v>6.0</v>
       </c>
-      <c r="L7" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
+      <c r="L7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="22">
+      <c r="A8" s="30">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="22">
+      <c r="B8" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="30">
         <v>9.0</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="22">
+      <c r="G8" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="30">
         <v>3.0</v>
       </c>
-      <c r="L8" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
+      <c r="L8" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="22">
+      <c r="A9" s="30">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="22">
+      <c r="B9" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="30">
         <v>3.0</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="22">
+      <c r="G9" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="30">
         <v>5.0</v>
       </c>
-      <c r="L9" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
+      <c r="L9" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="22">
+      <c r="A10" s="30">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="22">
+      <c r="B10" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="30">
         <v>7.0</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" s="22">
+      <c r="G10" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K10" s="30">
         <v>8.0</v>
       </c>
-      <c r="L10" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
+      <c r="L10" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="22">
+      <c r="A11" s="30">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="22">
+      <c r="B11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="30">
         <v>2.0</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="22">
+      <c r="G11" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="30">
         <v>8.0</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" s="22">
+      <c r="L11" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="P11" s="30">
         <v>1.0</v>
       </c>
-      <c r="Q11" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
+      <c r="Q11" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="22">
+      <c r="A12" s="30">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="22">
+      <c r="B12" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="30">
         <v>7.0</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="22">
+      <c r="G12" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K12" s="30">
         <v>8.0</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="P12" s="22">
+      <c r="L12" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="P12" s="30">
         <v>5.0</v>
       </c>
-      <c r="Q12" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
+      <c r="Q12" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="22">
+      <c r="A13" s="30">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="22">
+      <c r="B13" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="30">
         <v>2.0</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" s="22">
+      <c r="G13" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="30">
         <v>4.0</v>
       </c>
-      <c r="L13" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="P13" s="22">
+      <c r="L13" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="P13" s="30">
         <v>8.0</v>
       </c>
-      <c r="Q13" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
+      <c r="Q13" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="22">
+      <c r="A14" s="30">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="22">
+      <c r="B14" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="30">
         <v>1.0</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="K14" s="22">
+      <c r="G14" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="30">
         <v>1.0</v>
       </c>
-      <c r="L14" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="P14" s="22">
+      <c r="L14" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="P14" s="30">
         <v>1.0</v>
       </c>
-      <c r="Q14" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
+      <c r="Q14" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="22">
+      <c r="A15" s="30">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="22">
+      <c r="B15" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="30">
         <v>8.0</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" s="22">
+      <c r="G15" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K15" s="30">
         <v>7.0</v>
       </c>
-      <c r="L15" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="P15" s="22">
+      <c r="L15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="P15" s="30">
         <v>4.0</v>
       </c>
-      <c r="Q15" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
+      <c r="Q15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="22">
+      <c r="A16" s="30">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="22">
+      <c r="B16" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="30">
         <v>2.0</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" s="22">
+      <c r="G16" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="30">
         <v>7.0</v>
       </c>
-      <c r="L16" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16" s="22">
+      <c r="L16" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="P16" s="30">
         <v>6.0</v>
       </c>
-      <c r="Q16" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
+      <c r="Q16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="22">
+      <c r="A17" s="30">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="22">
+      <c r="B17" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="30">
         <v>6.0</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" s="22">
+      <c r="G17" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="30">
         <v>5.0</v>
       </c>
-      <c r="L17" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="P17" s="22">
+      <c r="L17" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="P17" s="30">
         <v>7.0</v>
       </c>
-      <c r="Q17" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
+      <c r="Q17" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="22">
+      <c r="A18" s="30">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="30">
+        <v>9.0</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="K18" s="22">
+      <c r="H18" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="30">
         <v>2.0</v>
       </c>
-      <c r="L18" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="P18" s="22">
+      <c r="L18" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="P18" s="30">
         <v>1.0</v>
       </c>
-      <c r="Q18" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
+      <c r="Q18" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="22">
+      <c r="A19" s="30">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="22">
+      <c r="B19" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="30">
         <v>6.0</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="K19" s="22">
+      <c r="G19" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="30">
         <v>1.0</v>
       </c>
-      <c r="L19" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="P19" s="22">
+      <c r="L19" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="P19" s="30">
         <v>9.0</v>
       </c>
-      <c r="Q19" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
+      <c r="Q19" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="22">
+      <c r="A20" s="30">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="22" t="s">
+      <c r="B20" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="22">
+      <c r="C20" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="30">
         <v>4.0</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" s="22">
+      <c r="G20" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K20" s="30">
         <v>8.0</v>
       </c>
-      <c r="L20" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="P20" s="22">
+      <c r="L20" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="P20" s="30">
         <v>9.0</v>
       </c>
-      <c r="Q20" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
+      <c r="Q20" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="22">
+      <c r="A21" s="30">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="22">
+      <c r="B21" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="30">
         <v>8.0</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="22">
+      <c r="G21" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="30">
         <v>4.0</v>
       </c>
-      <c r="L21" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="P21" s="22">
+      <c r="L21" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="P21" s="30">
         <v>10.0</v>
       </c>
-      <c r="Q21" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
+      <c r="Q21" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="22">
+      <c r="A22" s="30">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="22">
+      <c r="B22" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="30">
         <v>10.0</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22" s="22">
+      <c r="G22" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="30">
         <v>3.0</v>
       </c>
-      <c r="L22" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="P22" s="22">
+      <c r="L22" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="P22" s="30">
         <v>6.0</v>
       </c>
-      <c r="Q22" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
+      <c r="Q22" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22">
+      <c r="A23" s="30">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="22">
+      <c r="B23" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" s="30">
         <v>4.0</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="K23" s="22">
+      <c r="G23" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="30">
         <v>1.0</v>
       </c>
-      <c r="L23" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="P23" s="22">
+      <c r="L23" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="P23" s="30">
         <v>7.0</v>
       </c>
-      <c r="Q23" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
+      <c r="Q23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
